--- a/GDP-Per-Capital-Income/gdp-per-capital-restructered.xlsx
+++ b/GDP-Per-Capital-Income/gdp-per-capital-restructered.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="934" activeTab="1"/>
+    <workbookView windowWidth="15915" windowHeight="7815" tabRatio="934" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="Data Trend" sheetId="7" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_UN_Region">#N/A</definedName>
+    <definedName name="Slicer_Year">#N/A</definedName>
+    <definedName name="Slicer_Bank">#N/A</definedName>
     <definedName name="Slicer_Country_Territory">#N/A</definedName>
-    <definedName name="Slicer_Bank">#N/A</definedName>
-    <definedName name="Slicer_Year">#N/A</definedName>
-    <definedName name="Slicer_UN_Region">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -849,10 +849,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -870,6 +870,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -878,8 +886,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,48 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,6 +940,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -956,14 +949,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,9 +978,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,19 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,25 +1037,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,13 +1079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,31 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,31 +1139,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,7 +1169,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,17 +1201,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,15 +1245,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,15 +1267,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1274,16 +1274,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,7 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1321,130 +1321,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3400,7 +3400,7 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -8146,7 +8146,62 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -8193,7 +8248,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -8601,7 +8656,7 @@
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -22533,7 +22588,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sno" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="223" count="223">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="223" count="223">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
@@ -58353,6 +58408,104 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_UN_Region" sourceName="UN Region">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="11" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable3"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="13" name="PivotTable1"/>
+    <pivotTable tabId="14" name="PivotTable3"/>
+    <pivotTable tabId="15" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="6">
+        <i x="4" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable3"/>
+    <pivotTable tabId="11" name="PivotTable1"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="13" name="PivotTable1"/>
+    <pivotTable tabId="14" name="PivotTable3"/>
+    <pivotTable tabId="15" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="11">
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+        <i x="8" s="1"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Bank" sourceName="Bank">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="4" name="PivotTable3"/>
+    <pivotTable tabId="6" name="PivotTable2"/>
+    <pivotTable tabId="3" name="PivotTable4"/>
+    <pivotTable tabId="7" name="PivotTable7"/>
+    <pivotTable tabId="8" name="PivotTable1"/>
+    <pivotTable tabId="10" name="PivotTable3"/>
+    <pivotTable tabId="11" name="PivotTable1"/>
+    <pivotTable tabId="12" name="PivotTable1"/>
+    <pivotTable tabId="13" name="PivotTable1"/>
+    <pivotTable tabId="14" name="PivotTable3"/>
+    <pivotTable tabId="15" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="2" s="0"/>
+        <i x="1" s="0"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst/>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Country_Territory" sourceName="Country/Territory">
   <pivotTables>
     <pivotTable tabId="6" name="PivotTable2"/>
@@ -58594,104 +58747,6 @@
         <i x="189" s="1"/>
         <i x="195" s="1"/>
         <i x="181" s="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Bank" sourceName="Bank">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable3"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="7" name="PivotTable7"/>
-    <pivotTable tabId="8" name="PivotTable1"/>
-    <pivotTable tabId="10" name="PivotTable3"/>
-    <pivotTable tabId="11" name="PivotTable1"/>
-    <pivotTable tabId="12" name="PivotTable1"/>
-    <pivotTable tabId="13" name="PivotTable1"/>
-    <pivotTable tabId="14" name="PivotTable3"/>
-    <pivotTable tabId="15" name="PivotTable4"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="3">
-        <i x="0" s="1"/>
-        <i x="2" s="0"/>
-        <i x="1" s="0"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Year" sourceName="Year">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable3"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="7" name="PivotTable7"/>
-    <pivotTable tabId="8" name="PivotTable1"/>
-    <pivotTable tabId="10" name="PivotTable3"/>
-    <pivotTable tabId="11" name="PivotTable1"/>
-    <pivotTable tabId="12" name="PivotTable1"/>
-    <pivotTable tabId="13" name="PivotTable1"/>
-    <pivotTable tabId="14" name="PivotTable3"/>
-    <pivotTable tabId="15" name="PivotTable4"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="11">
-        <i x="0" s="1"/>
-        <i x="2" s="1"/>
-        <i x="8" s="1"/>
-        <i x="3" s="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-  <extLst/>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_UN_Region" sourceName="UN Region">
-  <pivotTables>
-    <pivotTable tabId="3" name="PivotTable4"/>
-    <pivotTable tabId="12" name="PivotTable1"/>
-    <pivotTable tabId="11" name="PivotTable1"/>
-    <pivotTable tabId="10" name="PivotTable3"/>
-    <pivotTable tabId="8" name="PivotTable1"/>
-    <pivotTable tabId="6" name="PivotTable2"/>
-    <pivotTable tabId="2" name="PivotTable1"/>
-    <pivotTable tabId="4" name="PivotTable3"/>
-    <pivotTable tabId="7" name="PivotTable7"/>
-    <pivotTable tabId="13" name="PivotTable1"/>
-    <pivotTable tabId="14" name="PivotTable3"/>
-    <pivotTable tabId="15" name="PivotTable4"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="6">
-        <i x="4" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
-        <i x="5" s="1"/>
       </items>
     </tabular>
   </data>
@@ -76404,8 +76459,8 @@
   <sheetPr/>
   <dimension ref="B1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -78268,7 +78323,6 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4"/>
       <c r="C4">
         <v>348056</v>
       </c>
@@ -78301,7 +78355,6 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8"/>
       <c r="C8">
         <v>230526</v>
       </c>
@@ -78334,7 +78387,6 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12"/>
       <c r="C12">
         <v>171323</v>
       </c>
@@ -78367,7 +78419,6 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16"/>
       <c r="C16">
         <v>128594</v>
       </c>
@@ -78400,7 +78451,6 @@
       <c r="A20" t="s">
         <v>88</v>
       </c>
-      <c r="B20"/>
       <c r="C20">
         <v>40861</v>
       </c>
@@ -78433,7 +78483,6 @@
       <c r="A24" t="s">
         <v>107</v>
       </c>
-      <c r="B24"/>
       <c r="C24">
         <v>13440</v>
       </c>
@@ -78450,7 +78499,6 @@
       <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="B26"/>
       <c r="C26">
         <v>932800</v>
       </c>
@@ -78504,7 +78552,6 @@
       <c r="A5" t="s">
         <v>243</v>
       </c>
-      <c r="B5"/>
       <c r="C5">
         <v>154129</v>
       </c>
@@ -78524,7 +78571,6 @@
       <c r="A7" t="s">
         <v>244</v>
       </c>
-      <c r="B7"/>
       <c r="C7">
         <v>569810</v>
       </c>
@@ -78544,7 +78590,6 @@
       <c r="A9" t="s">
         <v>245</v>
       </c>
-      <c r="B9"/>
       <c r="C9">
         <v>849928</v>
       </c>
@@ -78564,7 +78609,6 @@
       <c r="A11" t="s">
         <v>246</v>
       </c>
-      <c r="B11"/>
       <c r="C11">
         <v>1653444</v>
       </c>
@@ -78584,7 +78628,6 @@
       <c r="A13" t="s">
         <v>247</v>
       </c>
-      <c r="B13"/>
       <c r="C13">
         <v>182663</v>
       </c>
@@ -78604,7 +78647,6 @@
       <c r="A15" t="s">
         <v>248</v>
       </c>
-      <c r="B15"/>
       <c r="C15">
         <v>13440</v>
       </c>
@@ -78613,7 +78655,6 @@
       <c r="A16" t="s">
         <v>242</v>
       </c>
-      <c r="B16"/>
       <c r="C16">
         <v>3423414</v>
       </c>
